--- a/CSPROJ2/Printing/Estimates.xlsx
+++ b/CSPROJ2/Printing/Estimates.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator1\Desktop\CsProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleo1\Desktop\CSPROJ2---Fake-News\CSPROJ2\Printing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
   <si>
     <t>Stages</t>
   </si>
@@ -205,13 +205,16 @@
   </si>
   <si>
     <t>442 Hours</t>
+  </si>
+  <si>
+    <t>This document provides the estimated project costs, resources, and duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -241,6 +244,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -290,6 +305,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -606,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D27:D28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -622,189 +646,171 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>59</v>
@@ -821,7 +827,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>59</v>
@@ -836,61 +842,49 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="D13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
@@ -902,18 +896,18 @@
         <v>17</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
@@ -925,21 +919,21 @@
         <v>17</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
@@ -948,21 +942,21 @@
         <v>17</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -971,12 +965,12 @@
         <v>17</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>21</v>
@@ -999,16 +993,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -1017,12 +1011,12 @@
         <v>17</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1045,16 +1039,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
@@ -1063,15 +1057,15 @@
         <v>17</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
@@ -1086,12 +1080,12 @@
         <v>17</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>27</v>
@@ -1100,7 +1094,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
@@ -1109,56 +1103,80 @@
         <v>17</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1167,16 +1185,20 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1185,7 +1207,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1193,16 +1215,37 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="9"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1210,15 +1253,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F87F5734FC7D3D48B22C702A58C6F427" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94f54a3a5eeef7c1e013c2379182a97e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="413d0d0c-a7cf-4d28-9916-c0cea0a2c048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bd9ad8e2309d2e5577f0afb1f485381" ns2:_="">
     <xsd:import namespace="413d0d0c-a7cf-4d28-9916-c0cea0a2c048"/>
@@ -1350,15 +1384,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78B4D2F0-1B68-4816-9E30-6CC66F7E26C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A41D9E25-930D-4477-9929-9746D6B7926E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1374,4 +1409,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78B4D2F0-1B68-4816-9E30-6CC66F7E26C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>